--- a/samp_dat.xlsx
+++ b/samp_dat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nested samples\PNAS Submission\Design_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nested samples\PNAS Submission\MATLAB script and data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD5F9F-E1A5-47CA-A335-24E462105A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E782213-5A25-45C9-A7EB-2AD55917A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="1545" windowWidth="23040" windowHeight="11385" xr2:uid="{3EC8D150-085F-4DAE-B5FE-2CDFD3615ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EC8D150-085F-4DAE-B5FE-2CDFD3615ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,58 +84,58 @@
     <t>Neo</t>
   </si>
   <si>
+    <t>Polyurethane_stress_strain</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>Sample_num</t>
+  </si>
+  <si>
+    <t>Non_Architected_stress_strain</t>
+  </si>
+  <si>
+    <t>Cy</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Cylindrical_stress_strain</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Concentric_stress_strain</t>
+  </si>
+  <si>
+    <t>Ns</t>
+  </si>
+  <si>
+    <t>rel_density</t>
+  </si>
+  <si>
+    <t>Critical strain</t>
+  </si>
+  <si>
+    <t>Zors</t>
+  </si>
+  <si>
+    <t>Zorbiumsoft_stress_strain</t>
+  </si>
+  <si>
+    <t>Zorh</t>
+  </si>
+  <si>
+    <t>Zorbiumhard_stress_strain</t>
+  </si>
+  <si>
+    <t>Fractal_stress_strain</t>
+  </si>
+  <si>
     <t>Neoprene_stress_strain</t>
-  </si>
-  <si>
-    <t>Polyurethane_stress_strain</t>
-  </si>
-  <si>
-    <t>PVC</t>
-  </si>
-  <si>
-    <t>Sample_num</t>
-  </si>
-  <si>
-    <t>Non_Architected_stress_strain</t>
-  </si>
-  <si>
-    <t>Cy</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Cylindrical_stress_strain</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
-  <si>
-    <t>Concentric_stress_strain</t>
-  </si>
-  <si>
-    <t>Ns</t>
-  </si>
-  <si>
-    <t>Nested_stress_strain</t>
-  </si>
-  <si>
-    <t>rel_density</t>
-  </si>
-  <si>
-    <t>Critical strain</t>
-  </si>
-  <si>
-    <t>Zors</t>
-  </si>
-  <si>
-    <t>Zorbiumsoft_stress_strain</t>
-  </si>
-  <si>
-    <t>Zorh</t>
-  </si>
-  <si>
-    <t>Zorbiumhard_stress_strain</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +581,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1">
         <v>1.23</v>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1">
         <v>1.05</v>
@@ -733,7 +733,7 @@
         <v>11.789499999999999</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>14</v>
@@ -787,10 +787,10 @@
         <v>0.66949999999999998</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="1">
         <v>2.2599999999999998</v>
@@ -841,10 +841,10 @@
         <v>0.66715000000000002</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1">
         <v>2.2599999999999998</v>
@@ -895,10 +895,10 @@
         <v>0.97566666666666502</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M7" s="1">
         <v>2.2599999999999998</v>
@@ -949,10 +949,10 @@
         <v>0.89285000000000003</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1">
         <v>2.2599999999999998</v>
@@ -1003,10 +1003,10 @@
         <v>8.0749999999999993</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1">
         <v>1.1359999999999999</v>
@@ -1057,10 +1057,10 @@
         <v>8.5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1">
         <v>1.1359999999999999</v>
